--- a/2-New Feature Request/Forms/Release Log Form - F6.xlsx
+++ b/2-New Feature Request/Forms/Release Log Form - F6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heba.backar\Downloads\SW 2025 2\SW 2025\SW 2025\1-Software Development Lifecycle\Forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QMS\1-Software Development Lifecycle\Forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9927EB9-44EC-4AE7-852B-AFFCDA59572B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724D7772-B85B-4F61-B186-7B6FE79B7A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="467" xr2:uid="{AFD02EE8-0092-4247-AD75-3F54CC0C98CB}"/>
+    <workbookView xWindow="20370" yWindow="-2595" windowWidth="29040" windowHeight="15840" tabRatio="467" xr2:uid="{AFD02EE8-0092-4247-AD75-3F54CC0C98CB}"/>
   </bookViews>
   <sheets>
     <sheet name="F-SW-SD-06" sheetId="1" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6AF887-FD95-4146-BB3D-602FD02622ED}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1521,7 +1521,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;L&amp;14Issue No.: (1)&amp;C&amp;14F-SW-SD/06&amp;R&amp;14Rev:0(0/0/2025)</oddFooter>
+    <oddFooter>&amp;L&amp;14Issue No.: (1)&amp;C&amp;14F-SW-SD/06&amp;R&amp;14Rev:0(01/10/2025)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
   <tableParts count="1">
